--- a/biology/Médecine/1421_en_santé_et_médecine/1421_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1421_en_santé_et_médecine/1421_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1421_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1421_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1421 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1421_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1421_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1er mai (env.) : ouverture de la Longhouse and Almshouse (en), bâtiment financé par le lord-maire de Londres, Richard Whittington, pour abriter des toilettes publiques de cent soixante-huit sièges au rez-de-chaussée et une maison d'aumône pour cinq ou six pauvres à l'étage[1].
-Giacomo Migliorati, évêque de Fermo, accorde aux échevins de Preci, en Ombrie, la charte de fondation d'un hôpital placé sous l'invocation de saint André[2].
-Fondation par Didier Villars de l'hôpital Notre-Dame de Pailhery à Romans, en Dauphiné[3].
-Fondation à Edirne en Turquie de la première léproserie ottomane, sous le règne du sultan Mourad II[4].
-À Lille, en Flandre, l'hôpital de la Trinité, que Jehan du Solier, son fondateur, destinait en 1291 à l'hébergement de cinq pauvres honteux ainsi qu'à de pauvres passants et qui a reçu jusqu'à vingt-cinq malades, voit sa capacité réduite à seize lits, réservés maintenant « aux femmes gisant d'enfants et aux pauvres malades femmes[5] ».
-Avec l'ensemble de l'université de Turin, la faculté de médecine est transférée à Chieri[6].
-Des médecins de Londres, dans la pétition qu'ils présentent au Parlement pour que soit réglementée leur pratique, demandent qu'elle soit interdite aux femmes[7],[8].
-Le sultan Mehmed Ier meurt à Andrinople, « frappé d'une apoplexie, ou atteint, selon d'autres, d'une dysenterie fatale[9] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er mai (env.) : ouverture de la Longhouse and Almshouse (en), bâtiment financé par le lord-maire de Londres, Richard Whittington, pour abriter des toilettes publiques de cent soixante-huit sièges au rez-de-chaussée et une maison d'aumône pour cinq ou six pauvres à l'étage.
+Giacomo Migliorati, évêque de Fermo, accorde aux échevins de Preci, en Ombrie, la charte de fondation d'un hôpital placé sous l'invocation de saint André.
+Fondation par Didier Villars de l'hôpital Notre-Dame de Pailhery à Romans, en Dauphiné.
+Fondation à Edirne en Turquie de la première léproserie ottomane, sous le règne du sultan Mourad II.
+À Lille, en Flandre, l'hôpital de la Trinité, que Jehan du Solier, son fondateur, destinait en 1291 à l'hébergement de cinq pauvres honteux ainsi qu'à de pauvres passants et qui a reçu jusqu'à vingt-cinq malades, voit sa capacité réduite à seize lits, réservés maintenant « aux femmes gisant d'enfants et aux pauvres malades femmes ».
+Avec l'ensemble de l'université de Turin, la faculté de médecine est transférée à Chieri.
+Des médecins de Londres, dans la pétition qu'ils présentent au Parlement pour que soit réglementée leur pratique, demandent qu'elle soit interdite aux femmes,.
+Le sultan Mehmed Ier meurt à Andrinople, « frappé d'une apoplexie, ou atteint, selon d'autres, d'une dysenterie fatale ».</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1421_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1421_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernardo de Granollachs (ca) (mort vers 1487), professeur de médecine et d'astrologie à l'université de médecine et d'arts (ca) de Barcelone[10],[11].
-Fernand de Cordoue (es)  (mort entre 1485 et 1487), philosophe et humaniste espagnol, professeur de médecine à Bologne en 1447-1448[6], auteur d'un traité sur les urines[12] et d'une somme de chirurgie[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernardo de Granollachs (ca) (mort vers 1487), professeur de médecine et d'astrologie à l'université de médecine et d'arts (ca) de Barcelone,.
+Fernand de Cordoue (es)  (mort entre 1485 et 1487), philosophe et humaniste espagnol, professeur de médecine à Bologne en 1447-1448, auteur d'un traité sur les urines et d'une somme de chirurgie.
 </t>
         </is>
       </c>
